--- a/distribuicao condicional produtos (2007).xlsx
+++ b/distribuicao condicional produtos (2007).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Github\POF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\POF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59408BF-7D69-40D7-9F27-9B4F2B4877B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E87C5B8-376C-4ED7-91F3-27B1C617E087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17700" yWindow="4170" windowWidth="14625" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="distribuicao condicional produt" sheetId="1" r:id="rId1"/>
@@ -82,19 +82,19 @@
     <t>Verduras</t>
   </si>
   <si>
+    <t>Grupo</t>
+  </si>
+  <si>
     <t>Valor</t>
   </si>
   <si>
     <t>Outros</t>
-  </si>
-  <si>
-    <t>Grupo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -928,25 +928,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -954,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>175385.15</v>
+        <v>133633.93</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -962,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>350568.46</v>
+        <v>146846.53</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -970,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>53650.61</v>
+        <v>18951.490000000002</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -978,7 +974,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>66651.649999999994</v>
+        <v>33968.480000000003</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -986,7 +982,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>81452.17</v>
+        <v>27225.32</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -994,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>84737.74</v>
+        <v>32060.12</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -1002,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>187515.05</v>
+        <v>74302.8</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -1010,7 +1006,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>97224.76</v>
+        <v>37150.870000000003</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -1018,7 +1014,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>10914.02</v>
+        <v>3383.83</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -1026,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>6919.28</v>
+        <v>3661.7</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -1034,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4832.29</v>
+        <v>1863.86</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -1042,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>107774.22</v>
+        <v>41992.85</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -1050,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>38267.97</v>
+        <v>14050.41</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -1058,7 +1054,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>249158.48</v>
+        <v>97131.07</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
@@ -1066,7 +1062,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>29641.72</v>
+        <v>18086.189999999999</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -1074,7 +1070,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>351.96</v>
+        <v>214.04</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -1082,7 +1078,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>41740.870000000003</v>
+        <v>16010.72</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -1090,7 +1086,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>371.99</v>
+        <v>161.84</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -1098,7 +1094,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1535.05</v>
+        <v>604.1</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -1106,15 +1102,15 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>22767.24</v>
+        <v>8568.9699999999993</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <v>2455106.12</v>
+        <v>919881.59</v>
       </c>
     </row>
   </sheetData>
